--- a/src/test/resources/org/xlbean/xlscript/Test_forBaseScript.xlsx
+++ b/src/test/resources/org/xlbean/xlscript/Test_forBaseScript.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\workspace\xldsl\xldsl\src\test\resources\org\xlbean\xldsl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\workspace\xldsl\xlscript\src\test\resources\org\xlbean\xlscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE2DBDF-832E-4DC6-8824-3D61C4BA79D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B8ED00-F937-479D-82AF-EC6A01415324}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15972" yWindow="0" windowWidth="21924" windowHeight="8652" xr2:uid="{45094189-5854-4264-84B2-85A9732F2E97}"/>
+    <workbookView xWindow="17424" yWindow="0" windowWidth="21924" windowHeight="8652" activeTab="1" xr2:uid="{45094189-5854-4264-84B2-85A9732F2E97}"/>
   </bookViews>
   <sheets>
     <sheet name="tableAndFlat" sheetId="1" r:id="rId1"/>
@@ -115,14 +115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>list#key?listToProp=key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list#value?listToProp=value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>list#~</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -147,6 +139,12 @@
   <si>
     <t>`"${col1}${col2}"`</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list#key?toBean=key</t>
+  </si>
+  <si>
+    <t>list#value?toBean=value</t>
   </si>
 </sst>
 </file>
@@ -515,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB2253C-CCB8-45E9-9DEE-AFFA88924DB6}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E8:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -588,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -596,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -604,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -617,7 +615,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EAFB78-2A2A-4CBA-B81C-5FEFBBA0573F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -646,37 +644,37 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/org/xlbean/xlscript/Test_forBaseScript.xlsx
+++ b/src/test/resources/org/xlbean/xlscript/Test_forBaseScript.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\workspace\xldsl\xlscript\src\test\resources\org\xlbean\xlscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B8ED00-F937-479D-82AF-EC6A01415324}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9770D4-0129-4F0F-9D0C-CBB049EBE64B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17424" yWindow="0" windowWidth="21924" windowHeight="8652" activeTab="1" xr2:uid="{45094189-5854-4264-84B2-85A9732F2E97}"/>
+    <workbookView xWindow="7740" yWindow="1044" windowWidth="21948" windowHeight="12660" activeTab="1" xr2:uid="{45094189-5854-4264-84B2-85A9732F2E97}"/>
   </bookViews>
   <sheets>
     <sheet name="tableAndFlat" sheetId="1" r:id="rId1"/>
@@ -141,10 +141,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>list#key?toBean=key</t>
-  </si>
-  <si>
-    <t>list#value?toBean=value</t>
+    <t>list#key?toMap=key</t>
+  </si>
+  <si>
+    <t>list#value?toMap=value</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/src/test/resources/org/xlbean/xlscript/Test_forBaseScript.xlsx
+++ b/src/test/resources/org/xlbean/xlscript/Test_forBaseScript.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\workspace\xldsl\xlscript\src\test\resources\org\xlbean\xlscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9770D4-0129-4F0F-9D0C-CBB049EBE64B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB585CEC-2E22-451F-A9F6-FE8FE6104819}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="1044" windowWidth="21948" windowHeight="12660" activeTab="1" xr2:uid="{45094189-5854-4264-84B2-85A9732F2E97}"/>
+    <workbookView xWindow="1380" yWindow="-108" windowWidth="29448" windowHeight="17496" xr2:uid="{45094189-5854-4264-84B2-85A9732F2E97}"/>
   </bookViews>
   <sheets>
     <sheet name="tableAndFlat" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>table#~</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>aaa</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -145,6 +141,10 @@
   </si>
   <si>
     <t>list#value?toMap=value</t>
+  </si>
+  <si>
+    <t>table?ignoreNullBlank=false#~</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB2253C-CCB8-45E9-9DEE-AFFA88924DB6}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -539,21 +539,21 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>999</v>
@@ -561,32 +561,32 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -594,20 +594,20 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -629,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EAFB78-2A2A-4CBA-B81C-5FEFBBA0573F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -644,37 +644,37 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
